--- a/Результат сравнения цен.xlsx
+++ b/Результат сравнения цен.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,6 +451,16 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Разница в цене</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Разница в процентах</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>В пределах диапазона</t>
         </is>
       </c>
@@ -458,16 +468,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Жалюзи-ролетта АЕК44т /$ 1136х2500</t>
+          <t>Шумоглушитель МК 60-30</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>57681</v>
+        <v>19593.792</v>
       </c>
       <c r="C2" t="n">
-        <v>25490</v>
-      </c>
-      <c r="D2" t="inlineStr">
+        <v>9405</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10188.792</v>
+      </c>
+      <c r="E2" t="n">
+        <v>108.3337799043062</v>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>Нет</t>
         </is>
@@ -476,16 +492,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Подвесной кассетный потолок "Грильято"+</t>
+          <t>Блок управления АСЕ Ц\У-3-10 Р</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2264.124</v>
+        <v>125894.832</v>
       </c>
       <c r="C3" t="n">
-        <v>1500</v>
-      </c>
-      <c r="D3" t="inlineStr">
+        <v>22278</v>
+      </c>
+      <c r="D3" t="n">
+        <v>103616.832</v>
+      </c>
+      <c r="E3" t="n">
+        <v>465.1083221115001</v>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>Нет</t>
         </is>
@@ -494,16 +516,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Подвесной потолок Оипа Мсегоюок +</t>
+          <t>Вентилятор \К 60-30/28-40</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1702.848</v>
+        <v>84278.52</v>
       </c>
       <c r="C4" t="n">
-        <v>1460</v>
-      </c>
-      <c r="D4" t="inlineStr">
+        <v>32516</v>
+      </c>
+      <c r="D4" t="n">
+        <v>51762.52</v>
+      </c>
+      <c r="E4" t="n">
+        <v>159.1909213925452</v>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>Нет</t>
         </is>
@@ -512,16 +540,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Керамогранит 600х600 (02 600*600</t>
+          <t>Вставка гибкая ЕН 60-30</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1932.9</v>
+        <v>3267.168</v>
       </c>
       <c r="C5" t="n">
-        <v>900</v>
-      </c>
-      <c r="D5" t="inlineStr">
+        <v>1584</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1683.168</v>
+      </c>
+      <c r="E5" t="n">
+        <v>106.2606060606061</v>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>Нет</t>
         </is>
@@ -530,124 +564,490 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Керамогранит СЕ020 Суперчёрный МВ</t>
+          <t>«ронштейн крепления вентилятора ККУ 100</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1519.8</v>
+        <v>1140.768</v>
       </c>
       <c r="C6" t="n">
-        <v>2000</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Да</t>
+        <v>497</v>
+      </c>
+      <c r="D6" t="n">
+        <v>643.768</v>
+      </c>
+      <c r="E6" t="n">
+        <v>129.5307847082495</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Нет</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Флизелин малярный \\Р 110 У/еЖопЕИ2 1*25</t>
+          <t>Возд.-СБ-оц.0,55-150*150-1.1250-ш20ц-ш20ц</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3157.464</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2724</v>
+        <v>1629.96</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Не найден</t>
+        </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Не найден</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Не найден </t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Не найден</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Стеклохолст \М!аШЩех М 40 1*50</t>
+          <t>Воз-д СН оц. 0-250 1.-3000</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1290.3</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2990</v>
+        <v>2895.78</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Не найден</t>
+        </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Не найден</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Не найден </t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Не найден</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Люк дверца 200х300 мм пластик</t>
+          <t>Отвод90-0100</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>284.58</v>
-      </c>
-      <c r="C9" t="n">
-        <v>600</v>
+        <v>427.38</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Не найден</t>
+        </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Не найден</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Не найден </t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Не найден</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Люк дверца 300х400 мм пластик</t>
+          <t>Переход-1-0160/0100</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>523.26</v>
+        <v>260.1</v>
       </c>
       <c r="C10" t="n">
-        <v>800</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Да</t>
+        <v>309</v>
+      </c>
+      <c r="D10" t="n">
+        <v>48.89999999999998</v>
+      </c>
+      <c r="E10" t="n">
+        <v>15.82524271844659</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Нет</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Керамогранит 600х600 1.204 600*600</t>
+          <t>Зозд.-СБ-оц.0,7-400*250-1.1250-ш20ц-ш20ц</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2335.8</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2213</v>
+        <v>3782.16</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Не найден</t>
+        </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Не найден</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Не найден </t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Не найден</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Керамогранит 600х600 1.202 600*600</t>
+          <t>Зозд.-СБ-оц.о0,7-450*250-1.1250-ш20ц-ш20ц</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2371.5</v>
-      </c>
-      <c r="C12" t="n">
-        <v>2213</v>
+        <v>4049.4</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Не найден</t>
+        </is>
       </c>
       <c r="D12" t="inlineStr">
+        <is>
+          <t>Не найден</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Не найден </t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Не найден</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Отвод90-СБ-оц.0,7-300*150-ШК100-ш20ц-</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1847.22</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1177</v>
+      </c>
+      <c r="D13" t="n">
+        <v>670.22</v>
+      </c>
+      <c r="E13" t="n">
+        <v>56.94307561597282</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Отвод90-0200</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>585.48</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Не найден</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Не найден</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Не найден </t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Не найден</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Отвод90-0160</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>532.4400000000001</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Не найден</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Не найден</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Не найден </t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Не найден</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Отвод90-0125</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>489.6</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Не найден</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Не найден</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Не найден </t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Не найден</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Переход-4-СБ-оц.0,7-600*300/ш20ц-</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2399.04</v>
+      </c>
+      <c r="C17" t="n">
+        <v>681</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1718.04</v>
+      </c>
+      <c r="E17" t="n">
+        <v>252.2819383259912</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Переход-4-СБ-оц.0,7-450*250/ш20ц-</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>2073.66</v>
+      </c>
+      <c r="C18" t="n">
+        <v>516</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1557.66</v>
+      </c>
+      <c r="E18" t="n">
+        <v>301.8720930232558</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Переход-4-СБ-оц.0,7-400*250/ш20ц-</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1943.1</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Не найден</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Не найден</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Не найден </t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Не найден</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Переход-4-СБ-оц.0,7-350*250/ш20ц-</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1813.56</v>
+      </c>
+      <c r="C20" t="n">
+        <v>516</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1297.56</v>
+      </c>
+      <c r="E20" t="n">
+        <v>251.4651162790697</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Наружный блок АОНС09 КМСС Сепега!</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>71337.89999999999</v>
+      </c>
+      <c r="C21" t="n">
+        <v>116000</v>
+      </c>
+      <c r="D21" t="n">
+        <v>44662.10000000001</v>
+      </c>
+      <c r="E21" t="n">
+        <v>38.50181034482759</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Внутренний блок АЗНС12 КМСС Сепега!</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>31663.308</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Не найден</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Не найден</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Не найден </t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Не найден</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Нагреватель дренажа НД-5.5-10</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>528.36</v>
+      </c>
+      <c r="C23" t="n">
+        <v>550</v>
+      </c>
+      <c r="D23" t="n">
+        <v>21.63999999999999</v>
+      </c>
+      <c r="E23" t="n">
+        <v>3.934545454545452</v>
+      </c>
+      <c r="F23" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
